--- a/com.espn/src/test/resources/test_data.xlsx
+++ b/com.espn/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.espn\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E2882-95B7-4051-A948-142280A93EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E80E5D-DD8C-41D8-AF9D-E222EF63DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>jadehades12@gmail.com</t>
   </si>
@@ -45,6 +46,22 @@
   </si>
   <si>
     <t>Eraz!</t>
+  </si>
+  <si>
+    <t>afanfjanf</t>
+  </si>
+  <si>
+    <t>sbdbakdja</t>
+  </si>
+  <si>
+    <t>The credentials you entered are incorrect.
+Reminder: Passwords are case sensitive.</t>
+  </si>
+  <si>
+    <t>adhjashdka</t>
+  </si>
+  <si>
+    <t>dshbahds</t>
   </si>
 </sst>
 </file>
@@ -89,10 +106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED028B44-0745-4797-B85E-5B282150D94D}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +456,60 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B23423B-70CB-49C2-BB1B-6A0EA07DC227}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7A7A5B21-A484-4874-9A92-3C036716003F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.espn/src/test/resources/test_data.xlsx
+++ b/com.espn/src/test/resources/test_data.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.espn\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E80E5D-DD8C-41D8-AF9D-E222EF63DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32ACB17-CEAB-406D-A867-BAE00051C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" activeTab="5" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestInvalidLoginDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestViewGameDetailsDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestAddFavoriteTeamDP" sheetId="4" r:id="rId4"/>
+    <sheet name="TestViewArticleDP" sheetId="5" r:id="rId5"/>
+    <sheet name="TestPlayVideoDP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>jadehades12@gmail.com</t>
   </si>
@@ -62,6 +66,18 @@
   </si>
   <si>
     <t>dshbahds</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -431,7 +447,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B23423B-70CB-49C2-BB1B-6A0EA07DC227}">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -512,4 +528,111 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC4128-1CFC-483B-82C6-2E2C8D120307}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53100488-80AD-440C-A8CA-80C36B6237CC}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C9AF3502-9A5E-41C2-B7DD-A6F81A426A74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDD654B-8CE8-4F97-98D5-0194F07C0757}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0801556-6EF2-407C-ACFF-ADE6E1AE4428}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.espn/src/test/resources/test_data.xlsx
+++ b/com.espn/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.espn\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32ACB17-CEAB-406D-A867-BAE00051C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7B333-F81A-4837-AA2D-5009611AC5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" activeTab="5" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" activeTab="2" xr2:uid="{5793A645-17A9-4776-9D95-4292A51AF59C}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLoginDP" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>jadehades12@gmail.com</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -534,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC4128-1CFC-483B-82C6-2E2C8D120307}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +548,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0801556-6EF2-407C-ACFF-ADE6E1AE4428}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
